--- a/Assignment1_report.xlsx
+++ b/Assignment1_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="18480" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="aTunes_cr2" sheetId="5" r:id="rId3"/>
     <sheet name="jEdit_cr1" sheetId="2" r:id="rId4"/>
     <sheet name="jEdit_cr3" sheetId="3" r:id="rId5"/>
+    <sheet name="jEdit_cr2" sheetId="6" r:id="rId6"/>
+    <sheet name="aTunes_cr3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="218">
   <si>
     <t>Software system:</t>
   </si>
@@ -562,13 +564,170 @@
   </si>
   <si>
     <t>3. set up git repo, created new project for aTunes in eclipse, loaded songs in aTunes</t>
+  </si>
+  <si>
+    <t>3. Created new git branch for the change request #2</t>
+  </si>
+  <si>
+    <t>1. Read the jEdit Assignment, and the change request # 2</t>
+  </si>
+  <si>
+    <t>2. Created new git branch for the change request #2</t>
+  </si>
+  <si>
+    <t>2. found key concepts: Menu, Edit, Scroll Bar, Horizontal Scroll, Vertical Scroll</t>
+  </si>
+  <si>
+    <t>2.Menu &gt; Edit&gt; Hide Scrollbars</t>
+  </si>
+  <si>
+    <t>browsed package: org.gjt.sp.jedit.menu,
+org.gjt.sp.jedit.options</t>
+  </si>
+  <si>
+    <t>object search on: textArea</t>
+  </si>
+  <si>
+    <t>internet research on:  "javaFX Text area"</t>
+  </si>
+  <si>
+    <t>error on actions.xml lead to
+/jEdit/org/gjt/sp/jedit/textarea/JEditTextArea.java
+looked at updateScrollBar() method</t>
+  </si>
+  <si>
+    <t>found
+private final Box verticalBox;
+private final JScrollBar vertical;
+private final JScrollBar horizontal;</t>
+  </si>
+  <si>
+    <t>3. Both Hide Scrollbars and Show Scrollbars are working.</t>
+  </si>
+  <si>
+    <t>2. Tested
+Menu &gt; Edit &gt; Hide Scrollbars
+Menu &gt; Edit &gt; Show Scrollbars</t>
+  </si>
+  <si>
+    <t>1. Opened a text file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. added methods disableScrollBars() and enableScrollBars() to TextArea.java TextArea class
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modified:   org/gjt/sp/jedit/actions.xml
+ modified:   org/gjt/sp/jedit/jedit_gui.props
+ modified:   org/gjt/sp/jedit/textarea/TextArea.java/TextArea</t>
+  </si>
+  <si>
+    <t>1.Did not find scroll bars in any windows other than the text area</t>
+  </si>
+  <si>
+    <t>Impact set: 
+[org/gjt/sp/jedit/actions.xml, org/gjt/sp/jedit/jedit_gui.props, org/gjt/sp/jedit/textarea/TextArea.java/TextArea]</t>
+  </si>
+  <si>
+    <t>3. Additional concepts: buffer, view pane, ScrollBar, hide, disable, show, enable</t>
+  </si>
+  <si>
+    <t>2. added "disable-scrollbars" and "enable-scrollbars" actions in actions.xml</t>
+  </si>
+  <si>
+    <t>1. added "Hide Scrollbars" and "Show Scrollbars" items in jedit_gui.props</t>
+  </si>
+  <si>
+    <t>5. Text Search: "word-count:, Led to
+/jEdit/org/gjt/sp/jedit/actions.xml</t>
+  </si>
+  <si>
+    <t>3. interacted with jEdit:
+Menu &gt; Edit
+Menu &gt; utilities &gt; buffer options, global options.
+Menu &gt; View &gt; Scrolling</t>
+  </si>
+  <si>
+    <t>browsed public methods for vertical and horizontal
+Found:
+vertical.setEnabled(boolean);
+horizontal.setEnabled(boolean);</t>
+  </si>
+  <si>
+    <t>4. Text Serch: "Word Count…" (as seen in Menu &gt; Edit &gt; Word Count...). 
+Led to
+/jEdit/org/gjt/sp/jedit/jedit_gui.props</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>based on previous cr workes, 
+went to translation/english and translations/español.properties</t>
+  </si>
+  <si>
+    <t>3. new "Path File" Column</t>
+  </si>
+  <si>
+    <t>2. Saw new column "File Path" and each song has the absolute path</t>
+  </si>
+  <si>
+    <t>2. Read the aTunes change request 3</t>
+  </si>
+  <si>
+    <t>2. found key concepts: play list, column</t>
+  </si>
+  <si>
+    <t>4. Decided to track column "duration"</t>
+  </si>
+  <si>
+    <t>5. based on cr#1 and #2 experience went to 
+translations/english.properties
+translations/espanol.properties
+src/net/sourceforge/atunes/gui/model/PlayListTableModel.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text search </t>
+  </si>
+  <si>
+    <t>6. Text Search (case insensitive) on "columnwidth", led to
+src/net/sourceforge/atunes/kernel/controllers/playList/PlayListController.java</t>
+  </si>
+  <si>
+    <t>1. New column addition only affects the play list</t>
+  </si>
+  <si>
+    <t>Impact set: [ ]</t>
+  </si>
+  <si>
+    <t>Note: We tried to adjust the column width, after repeated error could not get it to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Added PATH_FILE in
+translations/english.properties
+translations/español.properties  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modified:   src/net/sourceforge/atunes/gui/model/PlayListTableModel.java
+modified:   src/net/sourceforge/atunes/kernel/controllers/playList/PlayListController.java
+modified:   translations/english.properties
+modified:   translations/español.properties </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UML </t>
+  </si>
+  <si>
+    <t>1. modified    constructor: PlayListTableModel(), methods: getColumnCount(), getColumnName(),
+added method isPathFileVisible()
+to PlayListModel class in
+src/net/sourceforge/atunes/gui/model/PlayListTableModel.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,6 +782,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -647,7 +811,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -851,8 +1015,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -893,8 +1105,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="251">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -996,6 +1211,30 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1097,6 +1336,30 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1127,7 +1390,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1212,7 +1474,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1468,7 +1729,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1533,6 +1793,241 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>jEdit_cr2!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T mins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>jEdit_cr2!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Initiation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Concept location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Impact analysis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Actualization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total Time (mins)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>jEdit_cr2!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>aTunes_cr3!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T mins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>aTunes_cr3!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Initiation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Concept location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Impact analysis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Actualization</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>aTunes_cr3!$B$20:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,6 +2198,164 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2489200</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="jEdit-cr2-UML-class.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3911600" y="16649700"/>
+          <a:ext cx="9613900" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6134100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6007100</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pathFileColClassUML.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3530600" y="12954000"/>
+          <a:ext cx="6007100" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1973,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2252,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B60" sqref="A2:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2651,7 +3304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -3394,7 +4047,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3804,4 +4457,810 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="11">
+        <v>100</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="11">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="11">
+        <f>SUM(B18:B22)</f>
+        <v>175</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3" ht="60">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" ht="45">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="12"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:3" ht="36">
+      <c r="A43" s="12"/>
+      <c r="B43" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:3" ht="60">
+      <c r="A45" s="12"/>
+      <c r="B45" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" ht="45">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="12"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="11"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="1:3" ht="30">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:3" ht="45">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="12"/>
+      <c r="B58" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:3" ht="45">
+      <c r="A60" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="97.33203125" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="60">
+      <c r="A13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="17">
+        <f>SUM(B20:B24)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>